--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1427,28 +1427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.75429953712711</v>
+        <v>55.94990015080513</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.8665629301401</v>
+        <v>76.55312172169266</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.1529821873485</v>
+        <v>69.24699922757294</v>
       </c>
       <c r="AD2" t="n">
-        <v>43754.29953712711</v>
+        <v>55949.90015080513</v>
       </c>
       <c r="AE2" t="n">
-        <v>59866.5629301401</v>
+        <v>76553.12172169266</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.686358716404185e-06</v>
+        <v>1.42217760249684e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.9775390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>54152.9821873485</v>
+        <v>69246.99922757295</v>
       </c>
     </row>
     <row r="3">
@@ -1533,28 +1533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.87143468575351</v>
+        <v>56.06703529943152</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.0268324081287</v>
+        <v>76.71339119968127</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.29795577129754</v>
+        <v>69.391972811522</v>
       </c>
       <c r="AD3" t="n">
-        <v>43871.43468575351</v>
+        <v>56067.03529943153</v>
       </c>
       <c r="AE3" t="n">
-        <v>60026.8324081287</v>
+        <v>76713.39119968127</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.680570022320772e-06</v>
+        <v>1.421106542535045e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.979166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>54297.95577129754</v>
+        <v>69391.97281152199</v>
       </c>
     </row>
   </sheetData>
@@ -1830,28 +1830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.85450337354494</v>
+        <v>66.53296416024143</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.05435152555087</v>
+        <v>91.03333679122869</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.89126955541325</v>
+        <v>82.34524289398655</v>
       </c>
       <c r="AD2" t="n">
-        <v>54854.50337354494</v>
+        <v>66532.96416024143</v>
       </c>
       <c r="AE2" t="n">
-        <v>75054.35152555087</v>
+        <v>91033.33679122869</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.666888623329962e-06</v>
+        <v>1.461427296537815e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.05078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>67891.26955541325</v>
+        <v>82345.24289398655</v>
       </c>
     </row>
   </sheetData>
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.42114933465313</v>
+        <v>78.26269346246299</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.56614976196559</v>
+        <v>107.0824699016551</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.06790669698546</v>
+        <v>96.86266926545879</v>
       </c>
       <c r="AD2" t="n">
-        <v>57421.14933465313</v>
+        <v>78262.69346246299</v>
       </c>
       <c r="AE2" t="n">
-        <v>78566.14976196559</v>
+        <v>107082.4699016551</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.505451703591445e-06</v>
+        <v>1.385490963285021e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.696940104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71067.90669698546</v>
+        <v>96862.6692654588</v>
       </c>
     </row>
   </sheetData>
@@ -2424,28 +2424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.99421760965297</v>
+        <v>65.88076230983259</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.24551470715086</v>
+        <v>90.14096544638483</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.06418839126063</v>
+        <v>81.53803821784325</v>
       </c>
       <c r="AD2" t="n">
-        <v>54994.21760965297</v>
+        <v>65880.76230983259</v>
       </c>
       <c r="AE2" t="n">
-        <v>75245.51470715085</v>
+        <v>90140.96544638483</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.168522352661338e-06</v>
+        <v>1.455457876105141e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.340494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68064.18839126063</v>
+        <v>81538.03821784325</v>
       </c>
     </row>
   </sheetData>
@@ -2721,28 +2721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.18778802961567</v>
+        <v>82.23436583516008</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.77051628252484</v>
+        <v>112.5166872597954</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.34399683383546</v>
+        <v>101.7782525459119</v>
       </c>
       <c r="AD2" t="n">
-        <v>72187.78802961568</v>
+        <v>82234.36583516008</v>
       </c>
       <c r="AE2" t="n">
-        <v>98770.51628252484</v>
+        <v>112516.6872597954</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.735283463921295e-06</v>
+        <v>1.277135603540969e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.177083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89343.99683383547</v>
+        <v>101778.2525459119</v>
       </c>
     </row>
   </sheetData>
@@ -3018,28 +3018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.26846135311961</v>
+        <v>67.06044033469072</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.62074709574181</v>
+        <v>91.75505296371631</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.40360912732653</v>
+        <v>82.99807948790719</v>
       </c>
       <c r="AD2" t="n">
-        <v>55268.46135311962</v>
+        <v>67060.44033469072</v>
       </c>
       <c r="AE2" t="n">
-        <v>75620.74709574181</v>
+        <v>91755.05296371631</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.656118479555411e-06</v>
+        <v>1.447591066381522e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.034505208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68403.60912732653</v>
+        <v>82998.07948790719</v>
       </c>
     </row>
   </sheetData>
@@ -3315,28 +3315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.00903748617149</v>
+        <v>96.60821545576877</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.3671624874957</v>
+        <v>132.183622440193</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.31106838345714</v>
+        <v>119.5682030354155</v>
       </c>
       <c r="AD2" t="n">
-        <v>77009.0374861715</v>
+        <v>96608.21545576878</v>
       </c>
       <c r="AE2" t="n">
-        <v>105367.1624874957</v>
+        <v>132183.622440193</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.158020548031533e-06</v>
+        <v>1.182510639486859e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.614908854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95311.06838345714</v>
+        <v>119568.2030354155</v>
       </c>
     </row>
   </sheetData>
@@ -3612,28 +3612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.5159039811788</v>
+        <v>65.82594330181507</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.59106489896482</v>
+        <v>90.06595966117133</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.47219835424158</v>
+        <v>81.47019087949921</v>
       </c>
       <c r="AD2" t="n">
-        <v>54515.9039811788</v>
+        <v>65825.94330181507</v>
       </c>
       <c r="AE2" t="n">
-        <v>74591.06489896482</v>
+        <v>90065.95966117134</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.507586451431163e-06</v>
+        <v>1.471476569045446e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.158203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>67472.19835424158</v>
+        <v>81470.19087949922</v>
       </c>
     </row>
   </sheetData>
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.54994709977585</v>
+        <v>66.11057301975968</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.63764419570566</v>
+        <v>90.4554025982399</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.51433218827596</v>
+        <v>81.82246592924071</v>
       </c>
       <c r="AD2" t="n">
-        <v>54549.94709977585</v>
+        <v>66110.57301975969</v>
       </c>
       <c r="AE2" t="n">
-        <v>74637.64419570567</v>
+        <v>90455.4025982399</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.650106348686034e-06</v>
+        <v>1.47088830484159e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.0751953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>67514.33218827596</v>
+        <v>81822.4659292407</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.60359410187174</v>
+        <v>67.61862327146726</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.66036110496923</v>
+        <v>92.51878348310679</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.96645997496579</v>
+        <v>83.68892063842979</v>
       </c>
       <c r="AD2" t="n">
-        <v>43603.59410187173</v>
+        <v>67618.62327146725</v>
       </c>
       <c r="AE2" t="n">
-        <v>59660.36110496923</v>
+        <v>92518.78348310679</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.683148521446665e-06</v>
+        <v>1.431312295611291e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.993815104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>53966.45997496579</v>
+        <v>83688.92063842979</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.48428814680337</v>
+        <v>65.51952028989169</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.54780671958021</v>
+        <v>89.64669817782878</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.4330686747842</v>
+        <v>81.09094312368957</v>
       </c>
       <c r="AD2" t="n">
-        <v>54484.28814680337</v>
+        <v>65519.52028989169</v>
       </c>
       <c r="AE2" t="n">
-        <v>74547.80671958021</v>
+        <v>89646.69817782879</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.343728630741443e-06</v>
+        <v>1.472048461589726e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.255859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>67433.0686747842</v>
+        <v>81090.94312368958</v>
       </c>
     </row>
   </sheetData>
@@ -4800,28 +4800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.25840834008831</v>
+        <v>66.98899820153184</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.97523623669045</v>
+        <v>91.6573026853239</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.62882772570093</v>
+        <v>82.90965835889115</v>
       </c>
       <c r="AD2" t="n">
-        <v>56258.40834008831</v>
+        <v>66988.99820153184</v>
       </c>
       <c r="AE2" t="n">
-        <v>76975.23623669046</v>
+        <v>91657.3026853239</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.776239538218906e-06</v>
+        <v>1.417631688585933e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.547200520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69628.82772570093</v>
+        <v>82909.65835889115</v>
       </c>
     </row>
   </sheetData>
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.18233818863207</v>
+        <v>79.62776773984818</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.97588605014694</v>
+        <v>108.9502247507994</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.24766113590969</v>
+        <v>98.55216821321173</v>
       </c>
       <c r="AD2" t="n">
-        <v>59182.33818863207</v>
+        <v>79627.76773984818</v>
       </c>
       <c r="AE2" t="n">
-        <v>80975.88605014695</v>
+        <v>108950.2247507994</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.169534674625238e-06</v>
+        <v>1.341167854976582e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.893880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73247.6611359097</v>
+        <v>98552.16821321173</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.95027226333421</v>
+        <v>114.8897755993945</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.2833955378994</v>
+        <v>157.197259554201</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.7538925252001</v>
+        <v>142.1945737301307</v>
       </c>
       <c r="AD2" t="n">
-        <v>95950.27226333422</v>
+        <v>114889.7755993945</v>
       </c>
       <c r="AE2" t="n">
-        <v>131283.3955378994</v>
+        <v>157197.259554201</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.368211815285471e-06</v>
+        <v>1.038990958503653e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>118753.8925252001</v>
+        <v>142194.5737301307</v>
       </c>
     </row>
   </sheetData>
@@ -8032,28 +8032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.46692921921056</v>
+        <v>65.90493417434341</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.52405546902591</v>
+        <v>90.17403845779592</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.41158421024771</v>
+        <v>81.56795478746353</v>
       </c>
       <c r="AD2" t="n">
-        <v>54466.92921921056</v>
+        <v>65904.93417434341</v>
       </c>
       <c r="AE2" t="n">
-        <v>74524.05546902592</v>
+        <v>90174.03845779592</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.593631440864756e-06</v>
+        <v>1.473603559492026e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.111002604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67411.5842102477</v>
+        <v>81567.95478746353</v>
       </c>
     </row>
   </sheetData>
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.61528579021006</v>
+        <v>67.51686514831378</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.095287591383</v>
+        <v>92.37955352975672</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.83286014408566</v>
+        <v>83.56297859641695</v>
       </c>
       <c r="AD2" t="n">
-        <v>55615.28579021006</v>
+        <v>67516.86514831378</v>
       </c>
       <c r="AE2" t="n">
-        <v>76095.28759138299</v>
+        <v>92379.55352975673</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.65320416803935e-06</v>
+        <v>1.436041282972903e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.018229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68832.86014408566</v>
+        <v>83562.97859641696</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.5309034813614</v>
+        <v>161.9262310250406</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.0711172277019</v>
+        <v>221.5546129694978</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.5036281449773</v>
+        <v>200.4097516616048</v>
       </c>
       <c r="AD2" t="n">
-        <v>134530.9034813614</v>
+        <v>161926.2310250406</v>
       </c>
       <c r="AE2" t="n">
-        <v>184071.1172277019</v>
+        <v>221554.6129694978</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.289434876468995e-06</v>
+        <v>8.226626992376738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.033528645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>166503.6281449773</v>
+        <v>200409.7516616048</v>
       </c>
     </row>
   </sheetData>
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.26687893266718</v>
+        <v>65.99557456098938</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.61858195826731</v>
+        <v>90.29805663357651</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.40165062753383</v>
+        <v>81.68013684260828</v>
       </c>
       <c r="AD2" t="n">
-        <v>55266.87893266718</v>
+        <v>65995.57456098938</v>
       </c>
       <c r="AE2" t="n">
-        <v>75618.58195826731</v>
+        <v>90298.0566335765</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.024554072245267e-06</v>
+        <v>1.44655480016383e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>68401.65062753383</v>
+        <v>81680.13684260828</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.39671377853585</v>
+        <v>65.57276976128868</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.42798360540822</v>
+        <v>89.71955645379499</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.32468131045593</v>
+        <v>81.15684790805483</v>
       </c>
       <c r="AD2" t="n">
-        <v>54396.71377853585</v>
+        <v>65572.76976128868</v>
       </c>
       <c r="AE2" t="n">
-        <v>74427.98360540821</v>
+        <v>89719.556453795</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.444656070824044e-06</v>
+        <v>1.474923432520417e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.200520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67324.68131045593</v>
+        <v>81156.84790805483</v>
       </c>
     </row>
   </sheetData>
